--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_11.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-545071.4122310726</v>
+        <v>-501651.1258362589</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17367124.05617156</v>
+        <v>16752473.70102567</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484448</v>
+        <v>492028.9342484439</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9305482.739009809</v>
+        <v>9318758.030313332</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +659,16 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>114.562562600275</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>355.6611154650816</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -826,10 +826,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>46.16917954999316</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -871,16 +871,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>79.8959740157257</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>308.3086748172354</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
@@ -902,7 +902,7 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>426.1073322928576</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1060,7 +1060,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1069,7 +1069,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1111,16 +1111,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>175.9336059080056</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>27.9735834668218</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>333.4124317789681</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>271.2749624188285</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>166.3197703738368</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>196.2330181148748</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>389.1448239298522</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1382,7 +1382,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>172.1539098037164</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1528,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>126.7641785672302</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1613,7 +1613,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>387.8677900780908</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,10 +1661,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>247.2456727662314</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1780,7 +1780,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>16.92574903168972</v>
       </c>
       <c r="T16" t="n">
-        <v>173.7040795765156</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>311.8436474956038</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>41.24614776280445</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2087,7 +2087,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>317.6918895940074</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.83352628367393</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2242,7 +2242,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>24.62703520776649</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2251,13 +2251,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>94.21878984361655</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225796</v>
+        <v>83.49545568307968</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2542,7 +2542,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>136.0564930766995</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225785</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225785</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225815</v>
+        <v>18.05677735225785</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T38" t="n">
-        <v>201.6308445169458</v>
+        <v>201.6308445169444</v>
       </c>
       <c r="U38" t="n">
         <v>240.3943693174059</v>
@@ -3676,10 +3676,10 @@
         <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277815</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934462</v>
+        <v>4.967932742934469</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3895,19 +3895,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C43" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D43" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317451</v>
       </c>
       <c r="E43" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F43" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G43" t="n">
         <v>147.6996518856832</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934458</v>
+        <v>4.967932742934451</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>405.8008644413113</v>
+        <v>405.8008644413114</v>
       </c>
       <c r="C44" t="n">
-        <v>417.5253377496635</v>
+        <v>417.5253377496636</v>
       </c>
       <c r="D44" t="n">
-        <v>415.3149766385525</v>
+        <v>415.3149766385526</v>
       </c>
       <c r="E44" t="n">
         <v>413.2012870545404</v>
@@ -3992,7 +3992,7 @@
         <v>381.1481427242214</v>
       </c>
       <c r="H44" t="n">
-        <v>270.0031426724685</v>
+        <v>270.0031426724686</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925404</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
       </c>
       <c r="U44" t="n">
-        <v>240.3943693174059</v>
+        <v>240.394369317406</v>
       </c>
       <c r="V44" t="n">
         <v>342.7550702267644</v>
       </c>
       <c r="W44" t="n">
-        <v>384.5711897043296</v>
+        <v>384.5711897043297</v>
       </c>
       <c r="X44" t="n">
-        <v>398.715328447735</v>
+        <v>398.7153284477351</v>
       </c>
       <c r="Y44" t="n">
-        <v>387.9675521245957</v>
+        <v>387.9675521245958</v>
       </c>
     </row>
     <row r="45">
@@ -4135,25 +4135,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C46" t="n">
-        <v>154.6003840628599</v>
+        <v>154.60038406286</v>
       </c>
       <c r="D46" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730227</v>
+        <v>151.8247133730228</v>
       </c>
       <c r="F46" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856832</v>
+        <v>147.6996518856833</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277801</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432457</v>
+        <v>71.53763939432409</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934462</v>
+        <v>4.967932742934519</v>
       </c>
       <c r="S46" t="n">
-        <v>141.4132446762359</v>
+        <v>141.413244676236</v>
       </c>
       <c r="T46" t="n">
-        <v>227.1849416185819</v>
+        <v>227.184941618582</v>
       </c>
       <c r="U46" t="n">
-        <v>259.4129604006783</v>
+        <v>259.4129604006784</v>
       </c>
       <c r="V46" t="n">
         <v>267.8502427095265</v>
       </c>
       <c r="W46" t="n">
-        <v>253.070430030824</v>
+        <v>253.0704300308241</v>
       </c>
       <c r="X46" t="n">
         <v>226.7021267811743</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402854</v>
+        <v>208.9097636402855</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1434.694206920162</v>
+        <v>981.0148405224497</v>
       </c>
       <c r="C2" t="n">
-        <v>1318.974446717864</v>
+        <v>542.872367705873</v>
       </c>
       <c r="D2" t="n">
-        <v>890.3927724551322</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V2" t="n">
-        <v>1477.116202953456</v>
+        <v>1831.517644636552</v>
       </c>
       <c r="W2" t="n">
-        <v>1476.301152404893</v>
+        <v>1426.662190047585</v>
       </c>
       <c r="X2" t="n">
-        <v>1461.199093024608</v>
+        <v>1411.5601306673</v>
       </c>
       <c r="Y2" t="n">
-        <v>1456.953373364666</v>
+        <v>1003.274006966953</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M3" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N3" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>770.7035002010737</v>
+        <v>1013.503637065321</v>
       </c>
       <c r="C4" t="n">
-        <v>598.1417886842986</v>
+        <v>840.9419255485456</v>
       </c>
       <c r="D4" t="n">
-        <v>432.2637958858213</v>
+        <v>675.0639327500683</v>
       </c>
       <c r="E4" t="n">
-        <v>262.5057921365585</v>
+        <v>505.3059290008055</v>
       </c>
       <c r="F4" t="n">
-        <v>262.5057921365585</v>
+        <v>328.5988749625617</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374338</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>815.3347072823371</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>815.3347072823371</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>1270.644793662241</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1270.644793662241</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>1270.644793662241</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="X4" t="n">
-        <v>1189.941789605953</v>
+        <v>1432.7419264702</v>
       </c>
       <c r="Y4" t="n">
-        <v>962.5221189200608</v>
+        <v>1205.322255784308</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>573.6111384008032</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>539.5090696246305</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>507.639688839479</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X5" t="n">
-        <v>873.1855120707613</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y5" t="n">
-        <v>464.8993883704147</v>
+        <v>595.8703048453069</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>803.3416511546014</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>630.7799396378264</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>464.9019468393491</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>464.9019468393491</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>288.1948928011053</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1172.870982911978</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>995.1602698735885</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>995.1602698735885</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>995.1602698735885</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>995.1602698735885</v>
+        <v>1132.45937714051</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1777.837293402371</v>
+        <v>1114.066895752005</v>
       </c>
       <c r="C8" t="n">
-        <v>1339.694820585795</v>
+        <v>1079.964826975833</v>
       </c>
       <c r="D8" t="n">
-        <v>1307.825439800643</v>
+        <v>1048.095446190681</v>
       </c>
       <c r="E8" t="n">
-        <v>874.0506949589383</v>
+        <v>1018.361105389381</v>
       </c>
       <c r="F8" t="n">
-        <v>446.183265368146</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>44.78543399140988</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>44.78543399140988</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>44.36864461854989</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>479.6233320714678</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>953.717403061288</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>953.717403061288</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>953.717403061288</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>953.717403061288</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>953.717403061288</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1502.779380215843</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2049.278166174438</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2218.432230927494</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2134.780357111331</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2134.780357111331</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2134.780357111331</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.780357111331</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W8" t="n">
-        <v>2133.965306562769</v>
+        <v>1559.714245277141</v>
       </c>
       <c r="X8" t="n">
-        <v>2118.863247182484</v>
+        <v>1140.571781856452</v>
       </c>
       <c r="Y8" t="n">
-        <v>2114.617527522541</v>
+        <v>1136.326062196509</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>550.5403896098427</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>444.0839284464849</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>348.9936395930382</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>254.8732249199919</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>171.4893865361535</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>86.10429680233742</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>44.36864461854989</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>70.43231777900749</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>394.9906427452198</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>944.0526198997746</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1049.696689370943</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1049.696689370943</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1049.696689370943</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1049.696689370943</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1049.696689370943</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1590.435628003019</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1707.608406097359</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1644.152968545742</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1513.974324876343</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1337.637777876312</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1138.520259938311</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>953.197505671505</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>798.3300699103851</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>671.8442906896058</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1123.426805230431</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>950.8650937136562</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>784.9871009151789</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>615.2290971659162</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>438.5220431276724</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>272.9307681535</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>133.0285938438745</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>44.36864461854989</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>44.36864461854989</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>131.3035356248526</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>549.5134173928137</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1008.997284573727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1451.256087731371</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1870.925336957153</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2218.432230927494</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2218.432230927494</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2197.014409632866</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2037.773040930863</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1791.893594509318</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.460593762423</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1513.460593762423</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="W10" t="n">
-        <v>1513.460593762423</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1513.460593762423</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1315.245423949418</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2290.12845113864</v>
+        <v>2463.242850817569</v>
       </c>
       <c r="C11" t="n">
-        <v>1851.985978322063</v>
+        <v>2025.100378000992</v>
       </c>
       <c r="D11" t="n">
-        <v>1416.076193496508</v>
+        <v>1632.024798273868</v>
       </c>
       <c r="E11" t="n">
-        <v>982.3014486548027</v>
+        <v>1198.250053432163</v>
       </c>
       <c r="F11" t="n">
-        <v>554.4340190640105</v>
+        <v>770.3826238413708</v>
       </c>
       <c r="G11" t="n">
-        <v>380.5411808784379</v>
+        <v>368.9847924646346</v>
       </c>
       <c r="H11" t="n">
-        <v>91.41102632165413</v>
+        <v>79.85463790785089</v>
       </c>
       <c r="I11" t="n">
-        <v>91.41102632165413</v>
+        <v>79.85463790785089</v>
       </c>
       <c r="J11" t="n">
-        <v>526.6657137745719</v>
+        <v>515.1093253607688</v>
       </c>
       <c r="K11" t="n">
-        <v>1361.01600573275</v>
+        <v>1349.459617318947</v>
       </c>
       <c r="L11" t="n">
-        <v>2436.075971985609</v>
+        <v>2337.660761428601</v>
       </c>
       <c r="M11" t="n">
-        <v>3026.58859053766</v>
+        <v>2448.769169847496</v>
       </c>
       <c r="N11" t="n">
-        <v>3026.58859053766</v>
+        <v>2448.769169847496</v>
       </c>
       <c r="O11" t="n">
-        <v>3026.58859053766</v>
+        <v>2448.769169847496</v>
       </c>
       <c r="P11" t="n">
-        <v>3854.898465371056</v>
+        <v>3277.079044680893</v>
       </c>
       <c r="Q11" t="n">
-        <v>4401.39725132965</v>
+        <v>3823.577830639487</v>
       </c>
       <c r="R11" t="n">
-        <v>4570.551316082707</v>
+        <v>3992.731895392544</v>
       </c>
       <c r="S11" t="n">
-        <v>4570.551316082707</v>
+        <v>3909.080021576381</v>
       </c>
       <c r="T11" t="n">
-        <v>4570.551316082707</v>
+        <v>3909.080021576381</v>
       </c>
       <c r="U11" t="n">
-        <v>4311.329013399723</v>
+        <v>3649.857718893398</v>
       </c>
       <c r="V11" t="n">
-        <v>3948.71206333355</v>
+        <v>3287.240768827224</v>
       </c>
       <c r="W11" t="n">
-        <v>3543.856608744583</v>
+        <v>2882.385314238258</v>
       </c>
       <c r="X11" t="n">
-        <v>3124.714145323894</v>
+        <v>2463.242850817569</v>
       </c>
       <c r="Y11" t="n">
-        <v>2716.428021623547</v>
+        <v>2463.242850817569</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>597.5827713129469</v>
+        <v>586.0263828991436</v>
       </c>
       <c r="C12" t="n">
-        <v>491.1263101495892</v>
+        <v>479.569921735786</v>
       </c>
       <c r="D12" t="n">
-        <v>396.0360212961425</v>
+        <v>384.4796328823392</v>
       </c>
       <c r="E12" t="n">
-        <v>301.9156066230962</v>
+        <v>290.3592182092929</v>
       </c>
       <c r="F12" t="n">
-        <v>218.5317682392578</v>
+        <v>206.9753798254545</v>
       </c>
       <c r="G12" t="n">
-        <v>133.1466785054417</v>
+        <v>121.5902900916384</v>
       </c>
       <c r="H12" t="n">
-        <v>91.41102632165413</v>
+        <v>79.85463790785089</v>
       </c>
       <c r="I12" t="n">
-        <v>117.4746994821117</v>
+        <v>105.9183110683085</v>
       </c>
       <c r="J12" t="n">
-        <v>442.0330244483241</v>
+        <v>430.4766360345208</v>
       </c>
       <c r="K12" t="n">
-        <v>1096.739071074048</v>
+        <v>1085.182682660244</v>
       </c>
       <c r="L12" t="n">
-        <v>1096.739071074048</v>
+        <v>1085.182682660244</v>
       </c>
       <c r="M12" t="n">
-        <v>1096.739071074048</v>
+        <v>1085.182682660244</v>
       </c>
       <c r="N12" t="n">
-        <v>1096.739071074048</v>
+        <v>1085.182682660244</v>
       </c>
       <c r="O12" t="n">
-        <v>1096.739071074048</v>
+        <v>1085.182682660244</v>
       </c>
       <c r="P12" t="n">
-        <v>1096.739071074048</v>
+        <v>1085.182682660244</v>
       </c>
       <c r="Q12" t="n">
-        <v>1637.478009706123</v>
+        <v>1625.92162129232</v>
       </c>
       <c r="R12" t="n">
-        <v>1754.650787800463</v>
+        <v>1743.09439938666</v>
       </c>
       <c r="S12" t="n">
-        <v>1691.195350248846</v>
+        <v>1679.638961835043</v>
       </c>
       <c r="T12" t="n">
-        <v>1561.016706579448</v>
+        <v>1549.460318165644</v>
       </c>
       <c r="U12" t="n">
-        <v>1384.680159579416</v>
+        <v>1373.123771165613</v>
       </c>
       <c r="V12" t="n">
-        <v>1185.562641641415</v>
+        <v>1174.006253227612</v>
       </c>
       <c r="W12" t="n">
-        <v>1000.239887374609</v>
+        <v>988.683498960806</v>
       </c>
       <c r="X12" t="n">
-        <v>845.3724516134893</v>
+        <v>833.816063199686</v>
       </c>
       <c r="Y12" t="n">
-        <v>718.88667239271</v>
+        <v>707.3302839789068</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>941.9070633985855</v>
+        <v>767.9306540308348</v>
       </c>
       <c r="C13" t="n">
-        <v>769.3453518818104</v>
+        <v>767.9306540308348</v>
       </c>
       <c r="D13" t="n">
-        <v>603.4673590833331</v>
+        <v>602.0526612323575</v>
       </c>
       <c r="E13" t="n">
-        <v>433.7093553340703</v>
+        <v>602.0526612323575</v>
       </c>
       <c r="F13" t="n">
-        <v>257.0023012958264</v>
+        <v>474.0080364169734</v>
       </c>
       <c r="G13" t="n">
-        <v>91.41102632165413</v>
+        <v>308.416761442801</v>
       </c>
       <c r="H13" t="n">
-        <v>91.41102632165413</v>
+        <v>168.5145871331756</v>
       </c>
       <c r="I13" t="n">
-        <v>91.41102632165413</v>
+        <v>79.85463790785089</v>
       </c>
       <c r="J13" t="n">
-        <v>177.990711486344</v>
+        <v>166.4343230725407</v>
       </c>
       <c r="K13" t="n">
-        <v>452.7491660574796</v>
+        <v>441.1927776436763</v>
       </c>
       <c r="L13" t="n">
-        <v>870.9590478254407</v>
+        <v>859.4026594116373</v>
       </c>
       <c r="M13" t="n">
-        <v>1330.442915006354</v>
+        <v>1318.88652659255</v>
       </c>
       <c r="N13" t="n">
-        <v>1772.701718163998</v>
+        <v>1761.145329750195</v>
       </c>
       <c r="O13" t="n">
-        <v>2192.37096738978</v>
+        <v>2180.814578975976</v>
       </c>
       <c r="P13" t="n">
-        <v>2539.877861360122</v>
+        <v>2528.321472946318</v>
       </c>
       <c r="Q13" t="n">
-        <v>2708.070636224454</v>
+        <v>2696.51424781065</v>
       </c>
       <c r="R13" t="n">
-        <v>2708.070636224454</v>
+        <v>2675.096426516022</v>
       </c>
       <c r="S13" t="n">
-        <v>2689.831467181769</v>
+        <v>2515.855057814019</v>
       </c>
       <c r="T13" t="n">
-        <v>2443.952020760225</v>
+        <v>2269.975611392474</v>
       </c>
       <c r="U13" t="n">
-        <v>2165.51902001333</v>
+        <v>1991.542610645579</v>
       </c>
       <c r="V13" t="n">
-        <v>1878.56351188376</v>
+        <v>1704.58710251601</v>
       </c>
       <c r="W13" t="n">
-        <v>1606.537107470052</v>
+        <v>1432.560698102301</v>
       </c>
       <c r="X13" t="n">
-        <v>1361.145352803464</v>
+        <v>1187.168943435714</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.725682117573</v>
+        <v>959.749272749822</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2480.338482626587</v>
+        <v>2526.596499768893</v>
       </c>
       <c r="C14" t="n">
-        <v>2042.19600981001</v>
+        <v>2088.454026952316</v>
       </c>
       <c r="D14" t="n">
-        <v>1606.286224984455</v>
+        <v>1652.544242126761</v>
       </c>
       <c r="E14" t="n">
-        <v>1214.500578440928</v>
+        <v>1218.769497285056</v>
       </c>
       <c r="F14" t="n">
-        <v>786.6331488501357</v>
+        <v>790.9020676942636</v>
       </c>
       <c r="G14" t="n">
-        <v>385.2353174733996</v>
+        <v>389.5042363175274</v>
       </c>
       <c r="H14" t="n">
-        <v>96.1051629166159</v>
+        <v>100.3740817607437</v>
       </c>
       <c r="I14" t="n">
-        <v>96.1051629166159</v>
+        <v>99.9572923878837</v>
       </c>
       <c r="J14" t="n">
-        <v>96.1051629166159</v>
+        <v>535.2119798408016</v>
       </c>
       <c r="K14" t="n">
-        <v>467.2396943606312</v>
+        <v>1369.56227179898</v>
       </c>
       <c r="L14" t="n">
-        <v>1542.29966061349</v>
+        <v>2444.622238051839</v>
       </c>
       <c r="M14" t="n">
-        <v>2699.347495824041</v>
+        <v>2444.622238051839</v>
       </c>
       <c r="N14" t="n">
-        <v>3825.078479260488</v>
+        <v>2473.722227278831</v>
       </c>
       <c r="O14" t="n">
-        <v>4805.258145830795</v>
+        <v>3453.901893849138</v>
       </c>
       <c r="P14" t="n">
-        <v>4805.258145830795</v>
+        <v>4282.211768682534</v>
       </c>
       <c r="Q14" t="n">
-        <v>4805.258145830795</v>
+        <v>4828.710554641129</v>
       </c>
       <c r="R14" t="n">
-        <v>4805.258145830795</v>
+        <v>4997.864619394185</v>
       </c>
       <c r="S14" t="n">
-        <v>4721.606272014632</v>
+        <v>4914.212745578022</v>
       </c>
       <c r="T14" t="n">
-        <v>4501.539044887671</v>
+        <v>4694.145518451061</v>
       </c>
       <c r="U14" t="n">
-        <v>4501.539044887671</v>
+        <v>4434.923215768077</v>
       </c>
       <c r="V14" t="n">
-        <v>4138.922094821497</v>
+        <v>4185.180111963803</v>
       </c>
       <c r="W14" t="n">
-        <v>3734.066640232531</v>
+        <v>3780.324657374837</v>
       </c>
       <c r="X14" t="n">
-        <v>3314.924176811841</v>
+        <v>3361.182193954147</v>
       </c>
       <c r="Y14" t="n">
-        <v>2906.638053111495</v>
+        <v>2952.896070253801</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.2769079079087</v>
+        <v>606.1290373791765</v>
       </c>
       <c r="C15" t="n">
-        <v>495.820446744551</v>
+        <v>499.6725762158188</v>
       </c>
       <c r="D15" t="n">
-        <v>400.7301578911042</v>
+        <v>404.582287362372</v>
       </c>
       <c r="E15" t="n">
-        <v>306.6097432180579</v>
+        <v>310.4618726893257</v>
       </c>
       <c r="F15" t="n">
-        <v>223.2259048342195</v>
+        <v>227.0780343054873</v>
       </c>
       <c r="G15" t="n">
-        <v>137.8408151004034</v>
+        <v>141.6929445716712</v>
       </c>
       <c r="H15" t="n">
-        <v>96.1051629166159</v>
+        <v>99.9572923878837</v>
       </c>
       <c r="I15" t="n">
-        <v>122.1688360770735</v>
+        <v>126.0209655483413</v>
       </c>
       <c r="J15" t="n">
-        <v>446.7271610432858</v>
+        <v>450.5792905145536</v>
       </c>
       <c r="K15" t="n">
-        <v>1101.43320766901</v>
+        <v>450.5792905145536</v>
       </c>
       <c r="L15" t="n">
-        <v>1101.43320766901</v>
+        <v>450.5792905145536</v>
       </c>
       <c r="M15" t="n">
-        <v>1101.43320766901</v>
+        <v>450.5792905145536</v>
       </c>
       <c r="N15" t="n">
-        <v>1101.43320766901</v>
+        <v>450.5792905145536</v>
       </c>
       <c r="O15" t="n">
-        <v>1101.43320766901</v>
+        <v>450.5792905145536</v>
       </c>
       <c r="P15" t="n">
-        <v>1101.43320766901</v>
+        <v>1105.285337140277</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.172146301085</v>
+        <v>1646.024275772353</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.344924395425</v>
+        <v>1763.197053866693</v>
       </c>
       <c r="S15" t="n">
-        <v>1695.889486843808</v>
+        <v>1699.741616315076</v>
       </c>
       <c r="T15" t="n">
-        <v>1565.71084317441</v>
+        <v>1569.562972645677</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.374296174378</v>
+        <v>1393.226425645646</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.256778236377</v>
+        <v>1194.108907707645</v>
       </c>
       <c r="W15" t="n">
-        <v>1004.934023969571</v>
+        <v>1008.786153440839</v>
       </c>
       <c r="X15" t="n">
-        <v>850.0665882084511</v>
+        <v>853.9187176797188</v>
       </c>
       <c r="Y15" t="n">
-        <v>723.5808089876718</v>
+        <v>727.4329384589396</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1035.261149218872</v>
+        <v>1179.015452999765</v>
       </c>
       <c r="C16" t="n">
-        <v>862.6994377020968</v>
+        <v>1006.45374148299</v>
       </c>
       <c r="D16" t="n">
-        <v>696.8214449036195</v>
+        <v>840.5757486845125</v>
       </c>
       <c r="E16" t="n">
-        <v>527.0634411543567</v>
+        <v>670.8177449352498</v>
       </c>
       <c r="F16" t="n">
-        <v>350.3563871161129</v>
+        <v>494.1106908970061</v>
       </c>
       <c r="G16" t="n">
-        <v>184.7651121419406</v>
+        <v>328.5194159228337</v>
       </c>
       <c r="H16" t="n">
-        <v>184.7651121419406</v>
+        <v>188.6172416132084</v>
       </c>
       <c r="I16" t="n">
-        <v>96.1051629166159</v>
+        <v>99.9572923878837</v>
       </c>
       <c r="J16" t="n">
-        <v>182.6848480813058</v>
+        <v>186.5369775525736</v>
       </c>
       <c r="K16" t="n">
-        <v>457.4433026524413</v>
+        <v>461.2954321237091</v>
       </c>
       <c r="L16" t="n">
-        <v>875.6531844204023</v>
+        <v>879.5053138916702</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.137051601315</v>
+        <v>1338.989181072583</v>
       </c>
       <c r="N16" t="n">
-        <v>1777.39585475896</v>
+        <v>1781.247984230228</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.065103984741</v>
+        <v>2200.917233456009</v>
       </c>
       <c r="P16" t="n">
-        <v>2544.571997955083</v>
+        <v>2548.424127426351</v>
       </c>
       <c r="Q16" t="n">
-        <v>2712.764772819416</v>
+        <v>2716.616902290683</v>
       </c>
       <c r="R16" t="n">
-        <v>2712.764772819416</v>
+        <v>2716.616902290683</v>
       </c>
       <c r="S16" t="n">
-        <v>2712.764772819416</v>
+        <v>2699.520186097057</v>
       </c>
       <c r="T16" t="n">
-        <v>2537.306106580511</v>
+        <v>2453.640739675512</v>
       </c>
       <c r="U16" t="n">
-        <v>2258.873105833616</v>
+        <v>2175.207738928617</v>
       </c>
       <c r="V16" t="n">
-        <v>1971.917597704047</v>
+        <v>1888.252230799048</v>
       </c>
       <c r="W16" t="n">
-        <v>1699.891193290338</v>
+        <v>1616.22582638534</v>
       </c>
       <c r="X16" t="n">
-        <v>1454.499438623751</v>
+        <v>1370.834071718752</v>
       </c>
       <c r="Y16" t="n">
-        <v>1227.079767937859</v>
+        <v>1370.834071718752</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2522.327580924765</v>
+        <v>2413.722653506993</v>
       </c>
       <c r="C17" t="n">
-        <v>2084.185108108189</v>
+        <v>1975.580180690416</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.275323282633</v>
+        <v>1539.670395864861</v>
       </c>
       <c r="E17" t="n">
-        <v>1214.500578440928</v>
+        <v>1105.895651023156</v>
       </c>
       <c r="F17" t="n">
-        <v>786.6331488501357</v>
+        <v>790.9020676942636</v>
       </c>
       <c r="G17" t="n">
-        <v>385.2353174733996</v>
+        <v>389.5042363175274</v>
       </c>
       <c r="H17" t="n">
-        <v>96.1051629166159</v>
+        <v>100.3740817607437</v>
       </c>
       <c r="I17" t="n">
-        <v>96.1051629166159</v>
+        <v>99.9572923878837</v>
       </c>
       <c r="J17" t="n">
-        <v>531.3598503695339</v>
+        <v>535.2119798408016</v>
       </c>
       <c r="K17" t="n">
-        <v>1365.710142327712</v>
+        <v>1369.56227179898</v>
       </c>
       <c r="L17" t="n">
-        <v>2440.770108580571</v>
+        <v>2296.854058638587</v>
       </c>
       <c r="M17" t="n">
-        <v>2450.269818468498</v>
+        <v>3453.901893849138</v>
       </c>
       <c r="N17" t="n">
-        <v>2450.269818468498</v>
+        <v>3453.901893849138</v>
       </c>
       <c r="O17" t="n">
-        <v>3430.449485038804</v>
+        <v>3453.901893849138</v>
       </c>
       <c r="P17" t="n">
-        <v>4258.7593598722</v>
+        <v>4282.211768682534</v>
       </c>
       <c r="Q17" t="n">
-        <v>4805.258145830795</v>
+        <v>4828.710554641129</v>
       </c>
       <c r="R17" t="n">
-        <v>4805.258145830795</v>
+        <v>4997.864619394185</v>
       </c>
       <c r="S17" t="n">
-        <v>4805.258145830795</v>
+        <v>4914.212745578022</v>
       </c>
       <c r="T17" t="n">
-        <v>4585.190918703834</v>
+        <v>4694.145518451061</v>
       </c>
       <c r="U17" t="n">
-        <v>4543.528143185849</v>
+        <v>4434.923215768077</v>
       </c>
       <c r="V17" t="n">
-        <v>4180.911193119676</v>
+        <v>4072.306265701904</v>
       </c>
       <c r="W17" t="n">
-        <v>3776.055738530709</v>
+        <v>3667.450811112937</v>
       </c>
       <c r="X17" t="n">
-        <v>3356.91327511002</v>
+        <v>3248.308347692248</v>
       </c>
       <c r="Y17" t="n">
-        <v>2948.627151409673</v>
+        <v>2840.022223991901</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>602.2769079079087</v>
+        <v>606.1290373791765</v>
       </c>
       <c r="C18" t="n">
-        <v>495.820446744551</v>
+        <v>499.6725762158188</v>
       </c>
       <c r="D18" t="n">
-        <v>400.7301578911042</v>
+        <v>404.582287362372</v>
       </c>
       <c r="E18" t="n">
-        <v>306.6097432180579</v>
+        <v>310.4618726893257</v>
       </c>
       <c r="F18" t="n">
-        <v>223.2259048342195</v>
+        <v>227.0780343054873</v>
       </c>
       <c r="G18" t="n">
-        <v>137.8408151004034</v>
+        <v>141.6929445716712</v>
       </c>
       <c r="H18" t="n">
-        <v>96.1051629166159</v>
+        <v>99.9572923878837</v>
       </c>
       <c r="I18" t="n">
-        <v>122.1688360770735</v>
+        <v>126.0209655483413</v>
       </c>
       <c r="J18" t="n">
-        <v>446.7271610432858</v>
+        <v>450.5792905145536</v>
       </c>
       <c r="K18" t="n">
-        <v>446.7271610432858</v>
+        <v>1105.285337140277</v>
       </c>
       <c r="L18" t="n">
-        <v>446.7271610432858</v>
+        <v>1105.285337140277</v>
       </c>
       <c r="M18" t="n">
-        <v>446.7271610432858</v>
+        <v>1105.285337140277</v>
       </c>
       <c r="N18" t="n">
-        <v>446.7271610432858</v>
+        <v>1105.285337140277</v>
       </c>
       <c r="O18" t="n">
-        <v>446.7271610432858</v>
+        <v>1105.285337140277</v>
       </c>
       <c r="P18" t="n">
-        <v>1101.43320766901</v>
+        <v>1105.285337140277</v>
       </c>
       <c r="Q18" t="n">
-        <v>1642.172146301085</v>
+        <v>1646.024275772353</v>
       </c>
       <c r="R18" t="n">
-        <v>1759.344924395425</v>
+        <v>1763.197053866693</v>
       </c>
       <c r="S18" t="n">
-        <v>1695.889486843808</v>
+        <v>1699.741616315076</v>
       </c>
       <c r="T18" t="n">
-        <v>1565.71084317441</v>
+        <v>1569.562972645677</v>
       </c>
       <c r="U18" t="n">
-        <v>1389.374296174378</v>
+        <v>1393.226425645646</v>
       </c>
       <c r="V18" t="n">
-        <v>1190.256778236377</v>
+        <v>1194.108907707645</v>
       </c>
       <c r="W18" t="n">
-        <v>1004.934023969571</v>
+        <v>1008.786153440839</v>
       </c>
       <c r="X18" t="n">
-        <v>850.0665882084511</v>
+        <v>853.9187176797188</v>
       </c>
       <c r="Y18" t="n">
-        <v>723.5808089876718</v>
+        <v>727.4329384589396</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>946.6011999935472</v>
+        <v>950.4533294648149</v>
       </c>
       <c r="C19" t="n">
-        <v>774.0394884767721</v>
+        <v>777.8916179480399</v>
       </c>
       <c r="D19" t="n">
-        <v>608.1614956782948</v>
+        <v>612.0136251495626</v>
       </c>
       <c r="E19" t="n">
-        <v>438.403491929032</v>
+        <v>442.2556214002998</v>
       </c>
       <c r="F19" t="n">
-        <v>261.6964378907882</v>
+        <v>265.548567362056</v>
       </c>
       <c r="G19" t="n">
-        <v>96.1051629166159</v>
+        <v>99.9572923878837</v>
       </c>
       <c r="H19" t="n">
-        <v>96.1051629166159</v>
+        <v>99.9572923878837</v>
       </c>
       <c r="I19" t="n">
-        <v>96.1051629166159</v>
+        <v>99.9572923878837</v>
       </c>
       <c r="J19" t="n">
-        <v>182.6848480813058</v>
+        <v>186.5369775525736</v>
       </c>
       <c r="K19" t="n">
-        <v>457.4433026524413</v>
+        <v>461.2954321237091</v>
       </c>
       <c r="L19" t="n">
-        <v>875.6531844204023</v>
+        <v>879.5053138916702</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.137051601315</v>
+        <v>1338.989181072583</v>
       </c>
       <c r="N19" t="n">
-        <v>1777.39585475896</v>
+        <v>1781.247984230228</v>
       </c>
       <c r="O19" t="n">
-        <v>2197.065103984741</v>
+        <v>2200.917233456009</v>
       </c>
       <c r="P19" t="n">
-        <v>2544.571997955083</v>
+        <v>2548.424127426351</v>
       </c>
       <c r="Q19" t="n">
-        <v>2712.764772819416</v>
+        <v>2716.616902290683</v>
       </c>
       <c r="R19" t="n">
-        <v>2712.764772819416</v>
+        <v>2716.616902290683</v>
       </c>
       <c r="S19" t="n">
-        <v>2694.525603776731</v>
+        <v>2557.375533588679</v>
       </c>
       <c r="T19" t="n">
-        <v>2448.646157355186</v>
+        <v>2452.498286826454</v>
       </c>
       <c r="U19" t="n">
-        <v>2170.213156608292</v>
+        <v>2174.065286079559</v>
       </c>
       <c r="V19" t="n">
-        <v>1883.257648478722</v>
+        <v>1887.10977794999</v>
       </c>
       <c r="W19" t="n">
-        <v>1611.231244065014</v>
+        <v>1615.083373536281</v>
       </c>
       <c r="X19" t="n">
-        <v>1365.839489398426</v>
+        <v>1369.691618869694</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.419818712534</v>
+        <v>1142.271948183802</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2522.744370297625</v>
+        <v>2413.722653506994</v>
       </c>
       <c r="C20" t="n">
-        <v>2084.601897481049</v>
+        <v>1975.580180690417</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.692112655493</v>
+        <v>1539.670395864861</v>
       </c>
       <c r="E20" t="n">
-        <v>1214.917367813788</v>
+        <v>1218.769497285056</v>
       </c>
       <c r="F20" t="n">
-        <v>787.0499382229957</v>
+        <v>790.9020676942636</v>
       </c>
       <c r="G20" t="n">
-        <v>385.6521068462596</v>
+        <v>389.5042363175274</v>
       </c>
       <c r="H20" t="n">
-        <v>96.52195228947589</v>
+        <v>100.3740817607437</v>
       </c>
       <c r="I20" t="n">
-        <v>96.1051629166159</v>
+        <v>99.9572923878837</v>
       </c>
       <c r="J20" t="n">
-        <v>531.3598503695339</v>
+        <v>535.2119798408016</v>
       </c>
       <c r="K20" t="n">
-        <v>1365.710142327712</v>
+        <v>1369.56227179898</v>
       </c>
       <c r="L20" t="n">
-        <v>2440.770108580571</v>
+        <v>2444.622238051839</v>
       </c>
       <c r="M20" t="n">
-        <v>2440.770108580571</v>
+        <v>2444.622238051839</v>
       </c>
       <c r="N20" t="n">
-        <v>2440.770108580571</v>
+        <v>2473.722227278831</v>
       </c>
       <c r="O20" t="n">
-        <v>3420.949775150877</v>
+        <v>3453.901893849138</v>
       </c>
       <c r="P20" t="n">
-        <v>4249.259649984273</v>
+        <v>4282.211768682534</v>
       </c>
       <c r="Q20" t="n">
-        <v>4795.758435942868</v>
+        <v>4828.710554641129</v>
       </c>
       <c r="R20" t="n">
-        <v>4805.258145830795</v>
+        <v>4997.864619394185</v>
       </c>
       <c r="S20" t="n">
-        <v>4764.012159685671</v>
+        <v>4914.212745578022</v>
       </c>
       <c r="T20" t="n">
-        <v>4543.944932558709</v>
+        <v>4694.145518451061</v>
       </c>
       <c r="U20" t="n">
-        <v>4543.944932558709</v>
+        <v>4434.923215768077</v>
       </c>
       <c r="V20" t="n">
-        <v>4181.327982492536</v>
+        <v>4072.306265701904</v>
       </c>
       <c r="W20" t="n">
-        <v>3776.472527903569</v>
+        <v>3667.450811112937</v>
       </c>
       <c r="X20" t="n">
-        <v>3357.33006448288</v>
+        <v>3248.308347692248</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.043940782533</v>
+        <v>2840.022223991901</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>602.2769079079087</v>
+        <v>606.1290373791765</v>
       </c>
       <c r="C21" t="n">
-        <v>495.820446744551</v>
+        <v>499.6725762158188</v>
       </c>
       <c r="D21" t="n">
-        <v>400.7301578911042</v>
+        <v>404.582287362372</v>
       </c>
       <c r="E21" t="n">
-        <v>306.6097432180579</v>
+        <v>310.4618726893257</v>
       </c>
       <c r="F21" t="n">
-        <v>223.2259048342195</v>
+        <v>227.0780343054873</v>
       </c>
       <c r="G21" t="n">
-        <v>137.8408151004034</v>
+        <v>141.6929445716712</v>
       </c>
       <c r="H21" t="n">
-        <v>96.1051629166159</v>
+        <v>99.9572923878837</v>
       </c>
       <c r="I21" t="n">
-        <v>122.1688360770735</v>
+        <v>126.0209655483413</v>
       </c>
       <c r="J21" t="n">
-        <v>446.7271610432858</v>
+        <v>450.5792905145536</v>
       </c>
       <c r="K21" t="n">
-        <v>1101.43320766901</v>
+        <v>1105.285337140277</v>
       </c>
       <c r="L21" t="n">
-        <v>1101.43320766901</v>
+        <v>1105.285337140277</v>
       </c>
       <c r="M21" t="n">
-        <v>1101.43320766901</v>
+        <v>1105.285337140277</v>
       </c>
       <c r="N21" t="n">
-        <v>1101.43320766901</v>
+        <v>1105.285337140277</v>
       </c>
       <c r="O21" t="n">
-        <v>1101.43320766901</v>
+        <v>1105.285337140277</v>
       </c>
       <c r="P21" t="n">
-        <v>1101.43320766901</v>
+        <v>1105.285337140277</v>
       </c>
       <c r="Q21" t="n">
-        <v>1642.172146301085</v>
+        <v>1646.024275772353</v>
       </c>
       <c r="R21" t="n">
-        <v>1759.344924395425</v>
+        <v>1763.197053866693</v>
       </c>
       <c r="S21" t="n">
-        <v>1695.889486843808</v>
+        <v>1699.741616315076</v>
       </c>
       <c r="T21" t="n">
-        <v>1565.71084317441</v>
+        <v>1569.562972645677</v>
       </c>
       <c r="U21" t="n">
-        <v>1389.374296174378</v>
+        <v>1393.226425645646</v>
       </c>
       <c r="V21" t="n">
-        <v>1190.256778236377</v>
+        <v>1194.108907707645</v>
       </c>
       <c r="W21" t="n">
-        <v>1004.934023969571</v>
+        <v>1008.786153440839</v>
       </c>
       <c r="X21" t="n">
-        <v>850.0665882084511</v>
+        <v>853.9187176797188</v>
       </c>
       <c r="Y21" t="n">
-        <v>723.5808089876718</v>
+        <v>727.4329384589396</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>869.6698742446997</v>
+        <v>809.4511298054957</v>
       </c>
       <c r="C22" t="n">
-        <v>697.1081627279245</v>
+        <v>636.8894182887207</v>
       </c>
       <c r="D22" t="n">
-        <v>531.2301699294471</v>
+        <v>612.0136251495626</v>
       </c>
       <c r="E22" t="n">
-        <v>361.4721661801843</v>
+        <v>442.2556214002999</v>
       </c>
       <c r="F22" t="n">
-        <v>184.7651121419406</v>
+        <v>265.548567362056</v>
       </c>
       <c r="G22" t="n">
-        <v>184.7651121419406</v>
+        <v>99.9572923878837</v>
       </c>
       <c r="H22" t="n">
-        <v>184.7651121419406</v>
+        <v>99.9572923878837</v>
       </c>
       <c r="I22" t="n">
-        <v>96.1051629166159</v>
+        <v>99.9572923878837</v>
       </c>
       <c r="J22" t="n">
-        <v>182.6848480813058</v>
+        <v>186.5369775525736</v>
       </c>
       <c r="K22" t="n">
-        <v>457.4433026524413</v>
+        <v>461.2954321237091</v>
       </c>
       <c r="L22" t="n">
-        <v>875.6531844204023</v>
+        <v>879.5053138916702</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.137051601315</v>
+        <v>1338.989181072583</v>
       </c>
       <c r="N22" t="n">
-        <v>1777.39585475896</v>
+        <v>1781.247984230228</v>
       </c>
       <c r="O22" t="n">
-        <v>2197.065103984741</v>
+        <v>2200.917233456009</v>
       </c>
       <c r="P22" t="n">
-        <v>2544.571997955083</v>
+        <v>2548.424127426351</v>
       </c>
       <c r="Q22" t="n">
-        <v>2712.764772819416</v>
+        <v>2716.616902290683</v>
       </c>
       <c r="R22" t="n">
-        <v>2712.764772819416</v>
+        <v>2716.616902290683</v>
       </c>
       <c r="S22" t="n">
-        <v>2617.594278027884</v>
+        <v>2557.375533588679</v>
       </c>
       <c r="T22" t="n">
-        <v>2371.714831606339</v>
+        <v>2311.496087167135</v>
       </c>
       <c r="U22" t="n">
-        <v>2093.281830859444</v>
+        <v>2033.06308642024</v>
       </c>
       <c r="V22" t="n">
-        <v>1806.326322729875</v>
+        <v>1746.107578290671</v>
       </c>
       <c r="W22" t="n">
-        <v>1534.299918316166</v>
+        <v>1474.081173876962</v>
       </c>
       <c r="X22" t="n">
-        <v>1288.908163649579</v>
+        <v>1228.689419210375</v>
       </c>
       <c r="Y22" t="n">
-        <v>1061.488492963687</v>
+        <v>1001.269748524483</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2613.163784754629</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2367.284338333084</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2088.851337586189</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1801.895829456619</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1529.869425042911</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1284.477670376323</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1090.187678435286</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>917.6259669185112</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>751.7479741200339</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>581.9899703707711</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>405.2829163325273</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>239.6916413583548</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>2026.844126920461</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1754.817722506753</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1509.425967840165</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1282.006297154273</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6467,10 +6467,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1431.851786213076</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.756877347711</v>
+        <v>970.9960463903951</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736201</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751428</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258801</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>286.0912842876363</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>120.500009313464</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477105</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C34" t="n">
         <v>780.1951658309358</v>
@@ -6892,7 +6892,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
         <v>1617.386921419177</v>
@@ -6923,31 +6923,31 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="O35" t="n">
         <v>5113.04201353898</v>
@@ -6974,13 +6974,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7154,13 +7154,13 @@
         <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E38" t="n">
         <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835855</v>
+        <v>755.295274783585</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
@@ -7181,19 +7181,19 @@
         <v>2442.231649339773</v>
       </c>
       <c r="M38" t="n">
-        <v>3599.279484550324</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N38" t="n">
-        <v>4725.010467986771</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O38" t="n">
-        <v>4725.010467986771</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P38" t="n">
-        <v>4725.010467986771</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q38" t="n">
-        <v>4725.010467986771</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R38" t="n">
         <v>4878.335183790893</v>
@@ -7202,10 +7202,10 @@
         <v>4811.083017387607</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V38" t="n">
         <v>4018.375659750116</v>
@@ -7214,7 +7214,7 @@
         <v>3629.919912574026</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y38" t="n">
         <v>2835.290740278742</v>
@@ -7312,16 +7312,16 @@
         <v>905.6649082936667</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080655</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716789</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463112</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G40" t="n">
-        <v>293.329412385015</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H40" t="n">
         <v>169.8269454882664</v>
@@ -7336,13 +7336,13 @@
         <v>491.0515498823631</v>
       </c>
       <c r="L40" t="n">
-        <v>925.3347848856844</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M40" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O40" t="n">
         <v>2294.966764156103</v>
@@ -7351,7 +7351,7 @@
         <v>2658.547011361805</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
         <v>2837.795025579744</v>
@@ -7363,7 +7363,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.440331947929</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V40" t="n">
         <v>1932.884531231236</v>
@@ -7372,7 +7372,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976692</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y40" t="n">
         <v>1237.245823703677</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.390877206712</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803011</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.138034390331</v>
+        <v>1584.138034390332</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961503</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835861</v>
+        <v>755.2952747835866</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197252</v>
+        <v>370.2971508197266</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581899</v>
       </c>
       <c r="I41" t="n">
         <v>97.56670367581786</v>
@@ -7412,19 +7412,19 @@
         <v>532.8213911287357</v>
       </c>
       <c r="K41" t="n">
-        <v>1367.171683086914</v>
+        <v>950.3948650455259</v>
       </c>
       <c r="L41" t="n">
-        <v>2354.19279167554</v>
+        <v>2025.454831298385</v>
       </c>
       <c r="M41" t="n">
-        <v>2354.19279167554</v>
+        <v>3182.502666508936</v>
       </c>
       <c r="N41" t="n">
-        <v>2354.19279167554</v>
+        <v>3182.502666508936</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245846</v>
+        <v>4162.682333079242</v>
       </c>
       <c r="P41" t="n">
         <v>4162.682333079242</v>
@@ -7436,22 +7436,22 @@
         <v>4878.335183790893</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387607</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.415497673522</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403415</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750116</v>
+        <v>4018.375659750117</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574027</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566214</v>
       </c>
       <c r="Y41" t="n">
         <v>2835.290740278743</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936672</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080663</v>
       </c>
       <c r="E43" t="n">
         <v>602.8283265716796</v>
       </c>
       <c r="F43" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850157</v>
       </c>
       <c r="H43" t="n">
         <v>169.8269454882664</v>
@@ -7585,10 +7585,10 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R43" t="n">
         <v>2837.795025579744</v>
@@ -7612,7 +7612,7 @@
         <v>1448.265786976693</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="44">
@@ -7628,13 +7628,13 @@
         <v>2003.64811180301</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.138034390331</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
@@ -7649,13 +7649,13 @@
         <v>532.8213911287357</v>
       </c>
       <c r="K44" t="n">
-        <v>1367.171683086914</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="L44" t="n">
-        <v>1367.171683086914</v>
+        <v>1607.881357381595</v>
       </c>
       <c r="M44" t="n">
-        <v>1367.171683086914</v>
+        <v>1607.881357381595</v>
       </c>
       <c r="N44" t="n">
         <v>2354.19279167554</v>
@@ -7679,19 +7679,19 @@
         <v>4607.415497673521</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V44" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X44" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="45">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397565</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936678</v>
+        <v>905.6649082936659</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080666</v>
+        <v>756.1866229080647</v>
       </c>
       <c r="E46" t="n">
-        <v>602.82832657168</v>
+        <v>602.828326571678</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463123</v>
+        <v>442.5209799463103</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850161</v>
+        <v>293.329412385014</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882667</v>
+        <v>169.8269454882665</v>
       </c>
       <c r="I46" t="n">
         <v>97.56670367581786</v>
@@ -7807,10 +7807,10 @@
         <v>200.2197420758676</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823631</v>
+        <v>491.051549882363</v>
       </c>
       <c r="L46" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856839</v>
       </c>
       <c r="M46" t="n">
         <v>1400.892005301957</v>
@@ -7822,34 +7822,34 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S46" t="n">
         <v>2694.953364290617</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230403</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703676</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8140,16 +8140,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,7 +8453,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>478.8828999897174</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,10 +8465,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>554.6080577318736</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>554.6080577318737</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>106.7111812840089</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8608,10 +8608,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>87.81302121848762</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,10 +8693,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>998.182973848136</v>
       </c>
       <c r="M11" t="n">
-        <v>596.4773924768187</v>
+        <v>112.2307155746412</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>374.883365094965</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>29.39392851211369</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9167,16 +9167,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>936.658370545058</v>
       </c>
       <c r="M17" t="n">
-        <v>9.595666553461342</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>29.39392851211369</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>9.595666553461342</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,22 +9881,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,13 +10115,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>60.59188538505123</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10598,7 +10598,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>387.2095039972201</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10829,22 +10829,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>154.8734503071946</v>
+        <v>81.93455261497274</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,13 +11060,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>421.7913877947376</v>
       </c>
       <c r="L41" t="n">
-        <v>996.9910187763903</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11297,16 +11297,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>996.9910187763903</v>
+        <v>753.8499336302475</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>42.40586304744767</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>225.2299432592523</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>48.17580493063113</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>41.56920731519693</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,10 +23549,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>111.7451077992803</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>140.7232059832936</v>
       </c>
       <c r="T16" t="n">
-        <v>69.7165723808137</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>111.7451077992805</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>215.3839318933488</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>139.5921776627259</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>111.7451077992803</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>41.98182879432743</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>63.43016517136675</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627253</v>
+        <v>74.15349933190362</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>2.446659489829758</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,13 +24649,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627254</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627254</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627252</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1.857074494182598e-12</v>
       </c>
       <c r="I46" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>809213.7366244061</v>
+        <v>816696.6378590065</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>809213.7366244061</v>
+        <v>816696.6378590065</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>813222.9296738305</v>
+        <v>816696.6378590065</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>752429.8439396301</v>
+        <v>683195.0130667734</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>780552.6225802371</v>
+        <v>803630.8995378562</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>780552.6225802371</v>
+        <v>803630.8995378562</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>780552.6225802372</v>
+        <v>803630.8995378563</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>817431.5561417248</v>
+        <v>817431.5561417247</v>
       </c>
     </row>
     <row r="12">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>147440.5129698623</v>
+        <v>147440.5129698624</v>
       </c>
       <c r="C2" t="n">
         <v>147440.5129698623</v>
@@ -26320,16 +26320,16 @@
         <v>147440.5129698623</v>
       </c>
       <c r="E2" t="n">
-        <v>133364.5928872001</v>
+        <v>121093.0500884359</v>
       </c>
       <c r="F2" t="n">
-        <v>138349.2209617908</v>
+        <v>142439.7352280456</v>
       </c>
       <c r="G2" t="n">
-        <v>138349.2209617908</v>
+        <v>142439.7352280456</v>
       </c>
       <c r="H2" t="n">
-        <v>138349.2209617908</v>
+        <v>142439.7352280456</v>
       </c>
       <c r="I2" t="n">
         <v>144885.8356377719</v>
@@ -26347,13 +26347,13 @@
         <v>144885.8356377719</v>
       </c>
       <c r="N2" t="n">
+        <v>147440.5129698622</v>
+      </c>
+      <c r="O2" t="n">
         <v>147440.5129698623</v>
       </c>
-      <c r="O2" t="n">
-        <v>147440.5129698625</v>
-      </c>
       <c r="P2" t="n">
-        <v>147440.5129698624</v>
+        <v>147440.5129698623</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>40478.87875178189</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>175572.7530518682</v>
+        <v>98730.12060706806</v>
       </c>
       <c r="F3" t="n">
-        <v>16812.40227510018</v>
+        <v>71999.16471932354</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20461.54847120716</v>
+        <v>7657.021957094599</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>32980.8450637969</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>146539.3711242549</v>
+        <v>82403.73026734652</v>
       </c>
       <c r="N3" t="n">
-        <v>12988.5682709979</v>
+        <v>60163.09402145786</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="D4" t="n">
-        <v>161750.2044208488</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>37852.87718644967</v>
+        <v>34369.84475337525</v>
       </c>
       <c r="F4" t="n">
-        <v>39267.6643517897</v>
+        <v>40428.67516281452</v>
       </c>
       <c r="G4" t="n">
-        <v>39267.6643517897</v>
+        <v>40428.67516281453</v>
       </c>
       <c r="H4" t="n">
-        <v>39267.66435178971</v>
+        <v>40428.67516281452</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
@@ -26442,7 +26442,7 @@
         <v>41122.95192991271</v>
       </c>
       <c r="K4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="L4" t="n">
         <v>41122.95192991271</v>
@@ -26451,13 +26451,13 @@
         <v>41122.95192991271</v>
       </c>
       <c r="N4" t="n">
-        <v>55396.20108640295</v>
+        <v>55396.20108640301</v>
       </c>
       <c r="O4" t="n">
-        <v>55396.20108640302</v>
+        <v>55396.20108640298</v>
       </c>
       <c r="P4" t="n">
-        <v>55396.20108640302</v>
+        <v>55396.20108640297</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>67347.76991009791</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>69472.38000445714</v>
+        <v>60689.52480996667</v>
       </c>
       <c r="F5" t="n">
-        <v>73039.92381662808</v>
+        <v>75967.54221479161</v>
       </c>
       <c r="G5" t="n">
-        <v>73039.92381662808</v>
+        <v>75967.54221479161</v>
       </c>
       <c r="H5" t="n">
-        <v>73039.92381662808</v>
+        <v>75967.54221479161</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-241740.1088828832</v>
+        <v>-289855.4574148447</v>
       </c>
       <c r="C6" t="n">
-        <v>-99548.80822317328</v>
+        <v>-66155.75883079994</v>
       </c>
       <c r="D6" t="n">
-        <v>-122136.3401128663</v>
+        <v>-66155.75883079988</v>
       </c>
       <c r="E6" t="n">
-        <v>-149533.4173555749</v>
+        <v>-72935.96247180524</v>
       </c>
       <c r="F6" t="n">
-        <v>9229.23051827286</v>
+        <v>-46001.10848471876</v>
       </c>
       <c r="G6" t="n">
-        <v>26041.63279337304</v>
+        <v>25998.0562346048</v>
       </c>
       <c r="H6" t="n">
-        <v>26041.63279337302</v>
+        <v>25998.0562346048</v>
       </c>
       <c r="I6" t="n">
-        <v>5583.096630859494</v>
+        <v>18364.39880558943</v>
       </c>
       <c r="J6" t="n">
-        <v>-84969.82024292355</v>
+        <v>-148629.9279550221</v>
       </c>
       <c r="K6" t="n">
-        <v>26044.64510206663</v>
+        <v>26021.42076268403</v>
       </c>
       <c r="L6" t="n">
-        <v>-6936.199961730221</v>
+        <v>26021.420762684</v>
       </c>
       <c r="M6" t="n">
-        <v>-120494.7260221882</v>
+        <v>-56382.30950466252</v>
       </c>
       <c r="N6" t="n">
-        <v>3540.128886371705</v>
+        <v>-43634.39686408839</v>
       </c>
       <c r="O6" t="n">
-        <v>16528.69715736972</v>
+        <v>16528.69715736958</v>
       </c>
       <c r="P6" t="n">
-        <v>16528.69715736964</v>
+        <v>16528.69715736969</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>16.23571033874738</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874732</v>
       </c>
     </row>
     <row r="3">
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>554.6080577318736</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1142.637829020677</v>
+        <v>998.182973848136</v>
       </c>
       <c r="F4" t="n">
-        <v>1201.314536457699</v>
+        <v>1249.466154848546</v>
       </c>
       <c r="G4" t="n">
-        <v>1201.314536457699</v>
+        <v>1249.466154848546</v>
       </c>
       <c r="H4" t="n">
-        <v>1201.314536457699</v>
+        <v>1249.466154848546</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>130.3122002117693</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>588.029771288803</v>
+        <v>330.6677672402791</v>
       </c>
       <c r="F4" t="n">
-        <v>58.67670743702206</v>
+        <v>251.2831810004102</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,22 +27030,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>76.94596692704658</v>
+        <v>28.7943485361991</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>130.3122002117693</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>588.029771288803</v>
+        <v>330.6677672402791</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>192.6064735633881</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>130.3122002117693</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>588.029771288803</v>
+        <v>330.6677672402791</v>
       </c>
       <c r="N4" t="n">
-        <v>58.67670743702206</v>
+        <v>251.2831810004102</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>319.1984854881359</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>3.329665100430134</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27546,10 +27546,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>117.7661826744374</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27591,16 +27591,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>163.041863104196</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>113.7278999628232</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27622,7 +27622,7 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>3.329665100430134</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27667,13 +27667,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>108.1523471402683</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>197.171890512211</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>88.6241430010906</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>152.3137928760559</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28071,13 +28071,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>102.9863699957345</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>28.91245586415798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30274,7 +30274,7 @@
         <v>16.23571033874737</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874597</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U38" t="n">
         <v>16.23571033874737</v>
@@ -30478,7 +30478,7 @@
         <v>16.23571033874738</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791302636</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874732</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874732</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874732</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874732</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874732</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874732</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874732</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874732</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874732</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874732</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874732</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874732</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874732</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874732</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874732</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874732</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874732</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874732</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874732</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874732</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874732</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874732</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874732</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874732</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874732</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874732</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874732</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874732</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874732</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874732</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874732</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874732</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874732</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874732</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874732</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874732</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874732</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874732</v>
       </c>
     </row>
   </sheetData>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>478.8828999897174</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>554.6080577318736</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>554.6080577318737</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>106.7111812840089</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35328,16 +35328,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>87.81302121848762</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,10 +35413,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>998.182973848136</v>
       </c>
       <c r="M11" t="n">
-        <v>596.4773924768187</v>
+        <v>112.2307155746412</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35425,13 +35425,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35580,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K14" t="n">
-        <v>374.883365094965</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>29.39392851211369</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35817,7 +35817,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35887,16 +35887,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>936.658370545058</v>
       </c>
       <c r="M17" t="n">
-        <v>9.595666553461342</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36130,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>29.39392851211369</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>9.595666553461342</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36291,7 +36291,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36835,13 +36835,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>60.59188538505123</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -37002,7 +37002,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37233,13 +37233,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37318,7 +37318,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>387.2095039972201</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37549,22 +37549,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>154.8734503071946</v>
+        <v>81.93455261497274</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37704,22 +37704,22 @@
         <v>293.7695028348439</v>
       </c>
       <c r="L40" t="n">
-        <v>438.6699343467892</v>
+        <v>438.6699343467889</v>
       </c>
       <c r="M40" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N40" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209001</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>421.7913877947376</v>
       </c>
       <c r="L41" t="n">
-        <v>996.9910187763903</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37950,13 +37950,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,16 +38017,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>996.9910187763903</v>
+        <v>753.8499336302475</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38175,19 +38175,19 @@
         <v>103.689937777828</v>
       </c>
       <c r="K46" t="n">
-        <v>293.7695028348439</v>
+        <v>293.7695028348438</v>
       </c>
       <c r="L46" t="n">
         <v>438.6699343467889</v>
       </c>
       <c r="M46" t="n">
-        <v>480.3608287033061</v>
+        <v>480.360828703306</v>
       </c>
       <c r="N46" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P46" t="n">
         <v>367.2527749552542</v>
